--- a/docss/trend/spain/E_endocrine.xlsx
+++ b/docss/trend/spain/E_endocrine.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap3_Endocrino_Comarcas" sheetId="2" r:id="rId1"/>
     <sheet name="Tasa_anual_cap3_Endocrino" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1346,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -12807,15 +12807,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>313</v>
       </c>
@@ -12829,215 +12829,260 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.75130026677691675</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.86834652315437055</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.63468486775384714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.751</v>
+      </c>
+      <c r="C2">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.72211654736854924</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.87107517507528676</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.58953800187313121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.871</v>
+      </c>
+      <c r="D3">
+        <v>0.59</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.71687919927648935</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.91162713275972462</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.55462101770333183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.70953344484962</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.82530638540762391</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.59534401422017036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.71</v>
+      </c>
+      <c r="C5">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.7830831173057633</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.88862813109465555</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.69515693302371739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.74910829493334696</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.87644549492619916</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.64714500031575439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.749</v>
+      </c>
+      <c r="C7">
+        <v>0.876</v>
+      </c>
+      <c r="D7">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.68208430676001319</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.7389488959128756</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.6334231564286783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="C8">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.5856882437679104</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.70611393428205127</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.48123639095312887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.75365907579331903</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.89699489795938359</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.62799964857376744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.754</v>
+      </c>
+      <c r="C10">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.628</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.67418532140688203</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.77669735539513751</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.58250397033322676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.68290276954033058</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.77478754388373061</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.60355812166480716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.70708254467523257</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.90421264914793642</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.53611226985204874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="C13">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.73064072760609688</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.84510787602032378</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.64342412602304389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.71811956587948678</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.88768552295912884</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.57244755803085212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="C15">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.73192992772823329</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.87863758211115239</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.61957535102406636</v>
-      </c>
+      <c r="B16">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.879</v>
+      </c>
+      <c r="D16">
+        <v>0.62</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
